--- a/approaches/agora_data/our_ground_truth/Spotify createPlaylist/response_property_constraints.xlsx
+++ b/approaches/agora_data/our_ground_truth/Spotify createPlaylist/response_property_constraints.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThacSi\API-Testing\Eval\agora_data\our_ground_truth\Spotify createPlaylist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A005EA-5ED3-4093-83FF-58B9A619CE6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C15259-D330-43CF-90A1-B09ECF4563F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1695" windowWidth="23235" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8685" yWindow="3150" windowWidth="18885" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="response_property_constraints" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">response_property_constraints!$A$1:$D$15</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>operation</t>
   </si>
@@ -122,6 +125,30 @@
   </si>
   <si>
     <t>Spotify URI of the playlist. schema: {"type": "string"} schema: {"type": "string"}</t>
+  </si>
+  <si>
+    <t>A link to the Web API endpoint providing full details of the playlist</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>The source URL of the image, schema: {"type": "string", "format": "uri"}</t>
+  </si>
+  <si>
+    <t>followers</t>
+  </si>
+  <si>
+    <t>A link to the Web API endpoint providing full details of the followers; null if not available</t>
+  </si>
+  <si>
+    <t>A link to the Web API endpoint returning the full result of the request</t>
+  </si>
+  <si>
+    <t>The object type: 'playlist'</t>
   </si>
 </sst>
 </file>
@@ -962,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1193,78 @@
         <v>33</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D15" xr:uid="{D5649096-F0FB-49B2-B053-92DB467BD7A1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>